--- a/data/case1/5/Q1_6.xlsx
+++ b/data/case1/5/Q1_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.23164486539689477</v>
+        <v>0.23237242672377789</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999470292664</v>
+        <v>-0.0059999999459137143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999516400209</v>
+        <v>-0.0039999999507163153</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999136610711</v>
+        <v>-0.0079999999119308995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999515410991</v>
+        <v>-0.0029999999504992658</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999489428433</v>
+        <v>-0.0019999999478006458</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998823938618</v>
+        <v>-0.0099999998799438217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998852515759</v>
+        <v>-0.0099999998827629</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.001999999959026777</v>
+        <v>-0.001999999957847276</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999657098755</v>
+        <v>-0.0019999999644788602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999579493064</v>
+        <v>-0.0029999999565095692</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.00349999995502559</v>
+        <v>-0.0034999999536675652</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.059752052448720505</v>
+        <v>0.058906454554993992</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.007999999928390622</v>
+        <v>-0.0079999999263042909</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998720257111</v>
+        <v>-0.00099999998632149811</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.010645854230037166</v>
+        <v>-0.010680823518350646</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999800761614</v>
+        <v>-0.0019999999791187051</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0089556555976155749</v>
+        <v>0.0093853686574361106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999628639316</v>
+        <v>-0.003999999962059686</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999496966865</v>
+        <v>-0.00399999994877831</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.044253074832180772</v>
+        <v>-0.044465754680757641</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999464157554</v>
+        <v>-0.0039999999454440882</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.004999999939096611</v>
+        <v>-0.0049999999378940174</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999804098501</v>
+        <v>-0.019999999800286439</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.039223641310375257</v>
+        <v>-0.039279031126285169</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999418611196</v>
+        <v>-0.0024999999406372098</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999376777993</v>
+        <v>-0.0024999999363766179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999228579313</v>
+        <v>-0.0019999999215665198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998670500219</v>
+        <v>-0.0069999998648215822</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999413163696</v>
+        <v>-0.059999999402067683</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999998565961619</v>
+        <v>-0.0069999998541927511</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998306774529</v>
+        <v>-0.0099999998277642277</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999998811879323</v>
+        <v>-0.003999999879280125</v>
       </c>
     </row>
   </sheetData>
